--- a/data_output/prism_passive/all_passive_out_length_leg_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_leg_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/data_output/prism_passive/all_passive_out_length_leg_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_leg_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>509.58720820312499</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>475.11774176000006</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>414.69833468750005</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>470.26451580749995</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>441.91674291999999</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>467.70403836750006</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>477.61131045375004</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>521.99539628125001</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>478.67487363437499</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>476.97252695812506</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>502.82087009000003</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>508.91170704000007</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>518.68453862312504</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>432.99391268812496</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>469.03323344000006</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>534.55717140000002</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>514.43989045750004</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>524.38741215750008</v>
@@ -588,55 +477,55 @@
         <v>438.82372297124999</v>
       </c>
       <c r="AA2">
-        <v>509.58720820312499</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>475.11774176000006</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>414.69833468750005</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>470.26451580749995</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>441.91674291999999</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>467.70403836750006</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>477.61131045375004</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>521.99539628125001</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>478.67487363437499</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>476.97252695812506</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>502.82087009000003</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>508.91170704000007</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>518.68453862312504</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>432.99391268812496</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>469.03323344000006</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>534.55717140000002</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>514.43989045750004</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>524.38741215750008</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>509.58720820312499</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>480.28206504000002</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>407.06585000000007</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>472.83426725999999</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>441.91674291999999</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>460.03675905000006</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>472.47570496500003</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>521.99539628125001</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>483.84973713312496</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>476.97252695812506</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>505.3862826925</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>503.84790896000004</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>526.34982737125006</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>432.99391268812496</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>476.68051442000007</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>534.55717140000002</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>516.97407711000005</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>524.38741215750008</v>
@@ -743,55 +629,55 @@
         <v>443.86767380999999</v>
       </c>
       <c r="AA3">
-        <v>509.58720820312499</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>480.28206504000002</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>407.06585000000007</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>472.83426725999999</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>441.91674291999999</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>460.03675905000006</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>472.47570496500003</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>521.99539628125001</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>483.84973713312496</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>476.97252695812506</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>505.3862826925</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>503.84790896000004</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>526.34982737125006</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>432.99391268812496</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>476.68051442000007</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>534.55717140000002</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>516.97407711000005</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>524.38741215750008</v>

--- a/data_output/prism_passive/all_passive_out_length_leg_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_leg_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>509.58720820312499</v>
+        <v>432.99391268812496</v>
       </c>
       <c r="C2">
-        <v>475.11774176000006</v>
+        <v>514.43989045750004</v>
       </c>
       <c r="D2">
-        <v>414.69833468750005</v>
+        <v>432.99391268812496</v>
       </c>
       <c r="E2">
-        <v>470.26451580749995</v>
+        <v>514.43989045750004</v>
       </c>
       <c r="F2">
         <v>441.91674291999999</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>509.58720820312499</v>
+        <v>432.99391268812496</v>
       </c>
       <c r="C3">
-        <v>480.28206504000002</v>
+        <v>516.97407711000005</v>
       </c>
       <c r="D3">
-        <v>407.06585000000007</v>
+        <v>432.99391268812496</v>
       </c>
       <c r="E3">
-        <v>472.83426725999999</v>
+        <v>516.97407711000005</v>
       </c>
       <c r="F3">
         <v>441.91674291999999</v>

--- a/data_output/prism_passive/all_passive_out_length_leg_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_leg_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>509.58720820312499</v>
+        <v>522.40334535812497</v>
       </c>
       <c r="C2">
-        <v>475.11774176000006</v>
+        <v>437.90090132812503</v>
       </c>
       <c r="D2">
-        <v>414.69833468750005</v>
+        <v>522.40334535812497</v>
       </c>
       <c r="E2">
-        <v>470.26451580749995</v>
+        <v>437.90090132812503</v>
       </c>
       <c r="F2">
         <v>441.91674291999999</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>509.58720820312499</v>
+        <v>526.34982737125006</v>
       </c>
       <c r="C3">
-        <v>480.28206504000002</v>
+        <v>432.99391268812496</v>
       </c>
       <c r="D3">
-        <v>407.06585000000007</v>
+        <v>526.34982737125006</v>
       </c>
       <c r="E3">
-        <v>472.83426725999999</v>
+        <v>432.99391268812496</v>
       </c>
       <c r="F3">
         <v>441.91674291999999</v>

--- a/data_output/prism_passive/all_passive_out_length_leg_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_leg_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>522.40334535812497</v>
+        <v>510.90623012812506</v>
       </c>
       <c r="C2">
-        <v>437.90090132812503</v>
+        <v>475.11774176000006</v>
       </c>
       <c r="D2">
-        <v>522.40334535812497</v>
+        <v>425.17570767312503</v>
       </c>
       <c r="E2">
-        <v>437.90090132812503</v>
+        <v>482.17448189062503</v>
       </c>
       <c r="F2">
         <v>441.91674291999999</v>
@@ -531,28 +531,28 @@
         <v>467.70403836750006</v>
       </c>
       <c r="H2">
-        <v>477.61131045375004</v>
+        <v>478.85494655999997</v>
       </c>
       <c r="I2">
-        <v>521.99539628125001</v>
+        <v>526.89572222125003</v>
       </c>
       <c r="J2">
-        <v>478.67487363437499</v>
+        <v>479.48703531249998</v>
       </c>
       <c r="K2">
-        <v>476.97252695812506</v>
+        <v>483.22003707312507</v>
       </c>
       <c r="L2">
-        <v>502.82087009000003</v>
+        <v>510.29936609750001</v>
       </c>
       <c r="M2">
         <v>508.91170704000007</v>
       </c>
       <c r="N2">
-        <v>518.68453862312504</v>
+        <v>522.40334535812497</v>
       </c>
       <c r="O2">
-        <v>432.99391268812496</v>
+        <v>437.90090132812503</v>
       </c>
       <c r="P2">
         <v>469.03323344000006</v>
@@ -564,40 +564,40 @@
         <v>514.43989045750004</v>
       </c>
       <c r="S2">
-        <v>524.38741215750008</v>
+        <v>527.10645599999998</v>
       </c>
       <c r="T2">
         <v>529.16689936</v>
       </c>
       <c r="U2">
-        <v>429.64115980000003</v>
+        <v>431.58563042500003</v>
       </c>
       <c r="V2">
-        <v>520.14803321499994</v>
+        <v>528.43014103125006</v>
       </c>
       <c r="W2">
-        <v>495.34475887874999</v>
+        <v>505.72325350874996</v>
       </c>
       <c r="X2">
-        <v>434.51163954000003</v>
+        <v>439.464458638125</v>
       </c>
       <c r="Y2">
-        <v>428.54740209937501</v>
+        <v>429.65865790249995</v>
       </c>
       <c r="Z2">
         <v>438.82372297124999</v>
       </c>
       <c r="AA2">
-        <v>509.58720820312499</v>
+        <v>510.90623012812506</v>
       </c>
       <c r="AB2">
         <v>475.11774176000006</v>
       </c>
       <c r="AC2">
-        <v>414.69833468750005</v>
+        <v>425.17570767312503</v>
       </c>
       <c r="AD2">
-        <v>470.26451580749995</v>
+        <v>482.17448189062503</v>
       </c>
       <c r="AE2">
         <v>441.91674291999999</v>
@@ -606,28 +606,28 @@
         <v>467.70403836750006</v>
       </c>
       <c r="AG2">
-        <v>477.61131045375004</v>
+        <v>478.85494655999997</v>
       </c>
       <c r="AH2">
-        <v>521.99539628125001</v>
+        <v>526.89572222125003</v>
       </c>
       <c r="AI2">
-        <v>478.67487363437499</v>
+        <v>479.48703531249998</v>
       </c>
       <c r="AJ2">
-        <v>476.97252695812506</v>
+        <v>483.22003707312507</v>
       </c>
       <c r="AK2">
-        <v>502.82087009000003</v>
+        <v>510.29936609750001</v>
       </c>
       <c r="AL2">
         <v>508.91170704000007</v>
       </c>
       <c r="AM2">
-        <v>518.68453862312504</v>
+        <v>522.40334535812497</v>
       </c>
       <c r="AN2">
-        <v>432.99391268812496</v>
+        <v>437.90090132812503</v>
       </c>
       <c r="AO2">
         <v>469.03323344000006</v>
@@ -639,25 +639,25 @@
         <v>514.43989045750004</v>
       </c>
       <c r="AR2">
-        <v>524.38741215750008</v>
+        <v>527.10645599999998</v>
       </c>
       <c r="AS2">
         <v>529.16689936</v>
       </c>
       <c r="AT2">
-        <v>429.64115980000003</v>
+        <v>431.58563042500003</v>
       </c>
       <c r="AU2">
-        <v>520.14803321499994</v>
+        <v>528.43014103125006</v>
       </c>
       <c r="AV2">
-        <v>495.34475887874999</v>
+        <v>505.72325350874996</v>
       </c>
       <c r="AW2">
-        <v>434.51163954000003</v>
+        <v>439.464458638125</v>
       </c>
       <c r="AX2">
-        <v>428.54740209937501</v>
+        <v>429.65865790249995</v>
       </c>
       <c r="AY2">
         <v>438.82372297124999</v>
@@ -668,22 +668,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>526.34982737125006</v>
+        <v>509.58720820312499</v>
       </c>
       <c r="C3">
-        <v>432.99391268812496</v>
+        <v>486.92069008500005</v>
       </c>
       <c r="D3">
-        <v>526.34982737125006</v>
+        <v>407.06585000000007</v>
       </c>
       <c r="E3">
-        <v>432.99391268812496</v>
+        <v>472.83426725999999</v>
       </c>
       <c r="F3">
-        <v>441.91674291999999</v>
+        <v>445.79399026687497</v>
       </c>
       <c r="G3">
-        <v>460.03675905000006</v>
+        <v>463.29211968750008</v>
       </c>
       <c r="H3">
         <v>472.47570496500003</v>
@@ -701,7 +701,7 @@
         <v>505.3862826925</v>
       </c>
       <c r="M3">
-        <v>503.84790896000004</v>
+        <v>509.51665865562495</v>
       </c>
       <c r="N3">
         <v>526.34982737125006</v>
@@ -710,19 +710,19 @@
         <v>432.99391268812496</v>
       </c>
       <c r="P3">
-        <v>476.68051442000007</v>
+        <v>478.54554664812497</v>
       </c>
       <c r="Q3">
-        <v>534.55717140000002</v>
+        <v>536.10470536875005</v>
       </c>
       <c r="R3">
-        <v>516.97407711000005</v>
+        <v>522.94383455249999</v>
       </c>
       <c r="S3">
         <v>524.38741215750008</v>
       </c>
       <c r="T3">
-        <v>526.63500032000002</v>
+        <v>528.34054208000009</v>
       </c>
       <c r="U3">
         <v>429.64115980000003</v>
@@ -740,13 +740,13 @@
         <v>428.54740209937501</v>
       </c>
       <c r="Z3">
-        <v>443.86767380999999</v>
+        <v>444.23528555999997</v>
       </c>
       <c r="AA3">
         <v>509.58720820312499</v>
       </c>
       <c r="AB3">
-        <v>480.28206504000002</v>
+        <v>486.92069008500005</v>
       </c>
       <c r="AC3">
         <v>407.06585000000007</v>
@@ -755,10 +755,10 @@
         <v>472.83426725999999</v>
       </c>
       <c r="AE3">
-        <v>441.91674291999999</v>
+        <v>445.79399026687497</v>
       </c>
       <c r="AF3">
-        <v>460.03675905000006</v>
+        <v>463.29211968750008</v>
       </c>
       <c r="AG3">
         <v>472.47570496500003</v>
@@ -776,7 +776,7 @@
         <v>505.3862826925</v>
       </c>
       <c r="AL3">
-        <v>503.84790896000004</v>
+        <v>509.51665865562495</v>
       </c>
       <c r="AM3">
         <v>526.34982737125006</v>
@@ -785,19 +785,19 @@
         <v>432.99391268812496</v>
       </c>
       <c r="AO3">
-        <v>476.68051442000007</v>
+        <v>478.54554664812497</v>
       </c>
       <c r="AP3">
-        <v>534.55717140000002</v>
+        <v>536.10470536875005</v>
       </c>
       <c r="AQ3">
-        <v>516.97407711000005</v>
+        <v>522.94383455249999</v>
       </c>
       <c r="AR3">
         <v>524.38741215750008</v>
       </c>
       <c r="AS3">
-        <v>526.63500032000002</v>
+        <v>528.34054208000009</v>
       </c>
       <c r="AT3">
         <v>429.64115980000003</v>
@@ -815,7 +815,7 @@
         <v>428.54740209937501</v>
       </c>
       <c r="AY3">
-        <v>443.86767380999999</v>
+        <v>444.23528555999997</v>
       </c>
     </row>
   </sheetData>
